--- a/biology/Botanique/Chamaedorea_elegans/Chamaedorea_elegans.xlsx
+++ b/biology/Botanique/Chamaedorea_elegans/Chamaedorea_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamaedorea elegans (synonyme : Neanthe bella, entre autres) est une espèce de plantes à fleurs de la famille des Arecaceae (les palmiers). C'est une des 105 espèces du genre de palmiers Chamaedorea.
 Il est originaire de la forêt pluviale du Mexique et du Guatemala. L'espèce est dioïque.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit palmier de croissance très lente pouvant atteindre 2,5 mètres dans son habitat naturel. Il présente des tiges tubulaires souples sans épine avec un feuillage généralement penné.
 Les fleurs apparaissent sur des pétioles irrégulièrement branchus qui poussent en dessous ou parmi les feuilles. Les fleurs jaunes ont une certaine ressemblance avec celles du mimosa. Il arrive que des fruits pareils à des baies de la taille d'un pois se développent après la floraison.
@@ -544,7 +558,9 @@
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamaedorea elegans est souvent cultivé comme plante d'appartement. Dans ce cas, il dépasse rarement 1 m de hauteur et 60 cm d'envergure. 
 Il apprécie un terreau léger, une bonne humidité ambiante et un éclairage modéré sans soleil direct. Mais il s'accommode d'une certaine sécheresse, d'une forte humidité ou d'éclairage réduit.
